--- a/PK/七月记录表.xlsx
+++ b/PK/七月记录表.xlsx
@@ -46,7 +46,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -124,13 +124,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,7 +417,7 @@
   <dimension ref="A1:R16385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -496,6 +496,9 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">

--- a/PK/七月记录表.xlsx
+++ b/PK/七月记录表.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:R16385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -491,12 +491,21 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
     </row>

--- a/PK/七月记录表.xlsx
+++ b/PK/七月记录表.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:R16385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -513,6 +513,9 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">

--- a/PK/七月记录表.xlsx
+++ b/PK/七月记录表.xlsx
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R16385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -516,6 +516,9 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">

--- a/PK/七月记录表.xlsx
+++ b/PK/七月记录表.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workshop\English-Learner\PK\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="9350"/>
+    <workbookView windowWidth="28800" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>7.19 『009』House prices 房价？房价！买房难租房贵</t>
   </si>
@@ -44,23 +34,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -69,35 +68,356 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -105,47 +425,332 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -194,7 +799,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -229,7 +834,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -403,34 +1008,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:R16385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="56.5446428571429" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="8.58203125" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.58035714285714" customWidth="1"/>
+    <col min="4" max="4" width="9.33035714285714" customWidth="1"/>
+    <col min="5" max="5" width="8.83035714285714" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:18">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
         <v>44027</v>
@@ -484,8 +1084,8 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -498,8 +1098,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -509,8 +1109,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F4">
@@ -520,41 +1120,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="1" t="s">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:1">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:1">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:1">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:1">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:1">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:1">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:1">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:1">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:1">
       <c r="A16"/>
     </row>
     <row r="17" spans="1:1">
@@ -49665,15 +50268,15 @@
       <c r="A16385"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzA3OTQwMTAwNw==&amp;mid=2651428419&amp;idx=1&amp;sn=24993ccb8ea38425fa833ed746805198&amp;chksm=84492f03b33ea6150c31c804002cba95e78a01c65b5a37a5d3f838f26c6726b6d7489ea31880&amp;scene=21 - wechat_redirect"/>
-    <hyperlink ref="A5" r:id="rId2" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzA3OTQwMTAwNw==&amp;mid=2651428327&amp;idx=1&amp;sn=08f80758de7d43cb43fba28d8e49e5cd&amp;chksm=84492ca7b33ea5b17bd352105726d502a5d8aefd070a997f807facb724f68f77a3a6fd93283c&amp;scene=21 - wechat_redirect"/>
-    <hyperlink ref="A4" r:id="rId3" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzA3OTQwMTAwNw==&amp;mid=2651428298&amp;idx=1&amp;sn=8b522dddea4f3f2128c77c137b7fb7a9&amp;chksm=84492c8ab33ea59c670f7f576417f4e5342bcd91be6c06971726cf57586a6a913fc94b9b7d56&amp;scene=21 - wechat_redirect"/>
-    <hyperlink ref="A3" r:id="rId4" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzA3OTQwMTAwNw==&amp;mid=2651428192&amp;idx=1&amp;sn=4f2fabf59e68a7982ad54a5d3edad03c&amp;chksm=84492c20b33ea536fe4647b85261fd49ceb913106155dcc4aa9ea91c85881ecf0cf251fbd626&amp;scene=21 - wechat_redirect"/>
-    <hyperlink ref="A2" r:id="rId5" location="wechat_redirect" display="http://mp.weixin.qq.com/s?__biz=MzA3OTQwMTAwNw==&amp;mid=2651428173&amp;idx=1&amp;sn=486c2becfaa338f4381bca90dc229e05&amp;chksm=84492c0db33ea51b0df38bc23d7e41e4e8d58e9affafea4e604acf527d81c6fce8327eb9e9b0&amp;scene=21 - wechat_redirect"/>
+    <hyperlink ref="A6" r:id="rId1" display="9.6 『017』实用商务英语（一）机场接机 Airport Pickup"/>
+    <hyperlink ref="A5" r:id="rId2" display="8.23 『015』旅游华盛顿（下）登顶华盛顿纪念碑"/>
+    <hyperlink ref="A4" r:id="rId3" display="8.16 『014』去华盛顿玩玩 (上) 酒店会和/一日游路线/白宫"/>
+    <hyperlink ref="A3" r:id="rId4" display="7.24 『010』西餐点菜篇（1）带朋友点个披萨吃"/>
+    <hyperlink ref="A2" r:id="rId5" display="7.19 『009』House prices 房价？房价！买房难租房贵"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/PK/七月记录表.xlsx
+++ b/PK/七月记录表.xlsx
@@ -36,9 +36,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -81,14 +81,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,36 +118,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -147,32 +133,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,8 +157,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,9 +181,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,19 +238,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,19 +304,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,13 +328,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +358,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,79 +370,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +394,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,11 +426,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,26 +450,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,42 +501,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,148 +528,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:R16385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -1128,9 +1128,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:16">
+      <c r="A6" s="6" t="s">
         <v>4</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1">
